--- a/biology/Biochimie/Méthionine_adénosyltransférase/Méthionine_adénosyltransférase.xlsx
+++ b/biology/Biochimie/Méthionine_adénosyltransférase/Méthionine_adénosyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thionine_ad%C3%A9nosyltransf%C3%A9rase</t>
+          <t>Méthionine_adénosyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La méthionine adénosyltransférase (MAT), ou S-adénosylméthionine synthétase, est une transférase qui catalyse la réaction :
 ATP + L-méthionine + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   phosphate + pyrophosphate + S-adénosyl-L-méthionine.
-Cette enzyme, anciennement classée EC 2.4.2.13, réalise la biosynthèse de la S-adénosylméthionine à partir d'ATP et de méthionine, un acide aminé soufré apolaire. Cette activité enzymatique est portée par une grande variété de protéines : la plupart des méthionine adénosyltransférases sont des homo-oligomères et le plus grand nombre sont des tétramères. Les monomères sont constitués de trois domaines formés par des séquences peptidiques non consécutives et les sous-unités interagissent à travers de grandes surfaces plates hydrophobes pour former les dimères[2].
+Cette enzyme, anciennement classée EC 2.4.2.13, réalise la biosynthèse de la S-adénosylméthionine à partir d'ATP et de méthionine, un acide aminé soufré apolaire. Cette activité enzymatique est portée par une grande variété de protéines : la plupart des méthionine adénosyltransférases sont des homo-oligomères et le plus grand nombre sont des tétramères. Les monomères sont constitués de trois domaines formés par des séquences peptidiques non consécutives et les sous-unités interagissent à travers de grandes surfaces plates hydrophobes pour former les dimères.
 </t>
         </is>
       </c>
